--- a/task/Uploads/abc.xlsx
+++ b/task/Uploads/abc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -33,22 +33,19 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Jeeva123</t>
-  </si>
-  <si>
-    <t>sanjeeve</t>
-  </si>
-  <si>
     <t>coimbatore</t>
   </si>
   <si>
-    <t>Sanjeeve</t>
-  </si>
-  <si>
     <t>StudentId</t>
   </si>
   <si>
-    <t>gdgfdd@gmail.com</t>
+    <t>ArunKumar</t>
+  </si>
+  <si>
+    <t>Arun987</t>
+  </si>
+  <si>
+    <t>arunkumar@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -461,7 +458,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -484,19 +481,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
